--- a/requirements_file/markers_brain.xlsx
+++ b/requirements_file/markers_brain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JSEQ_scRNAseq\requirements_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\Git\JSEQ_scRNAseq\requirements_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F620106-11A9-43AE-AB5B-C1F6139990E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512D6B6-7B2B-4F29-B04C-EC5249911F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>+GAD1</t>
   </si>
@@ -653,6 +662,54 @@
   </si>
   <si>
     <t>NKX1-2</t>
+  </si>
+  <si>
+    <t>SLC6A3</t>
+  </si>
+  <si>
+    <t>NR4A2</t>
+  </si>
+  <si>
+    <t>SLC6A2</t>
+  </si>
+  <si>
+    <t>DBH</t>
+  </si>
+  <si>
+    <t>SLC18A3</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>SLC5A7</t>
+  </si>
+  <si>
+    <t>SLC5A8</t>
+  </si>
+  <si>
+    <t>SLC6A4</t>
+  </si>
+  <si>
+    <t>TPH2</t>
+  </si>
+  <si>
+    <t>NOS1</t>
+  </si>
+  <si>
+    <t>SLC17A7</t>
+  </si>
+  <si>
+    <t>GAD1</t>
+  </si>
+  <si>
+    <t>GAD2</t>
+  </si>
+  <si>
+    <t>SLC32A1</t>
+  </si>
+  <si>
+    <t>LGI2</t>
   </si>
 </sst>
 </file>
@@ -997,42 +1054,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -1117,7 +1174,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1259,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1312,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>50</v>
       </c>
@@ -1284,7 +1341,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
@@ -1302,7 +1359,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="I6" s="1"/>
@@ -1312,26 +1369,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="U9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1343,7 +1400,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1355,7 +1412,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1367,7 +1424,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1379,7 +1436,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1408,7 +1465,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1437,7 +1494,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1466,7 +1523,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1495,7 +1552,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1524,7 +1581,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1553,7 +1610,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1582,7 +1639,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1611,7 +1668,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1640,7 +1697,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1669,7 +1726,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1698,7 +1755,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1727,7 +1784,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1756,7 +1813,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1785,7 +1842,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1814,7 +1871,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1843,7 +1900,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1872,7 +1929,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1901,7 +1958,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1930,7 +1987,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1959,7 +2016,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1988,7 +2045,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2017,7 +2074,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2046,7 +2103,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2075,7 +2132,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2104,7 +2161,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2133,7 +2190,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2162,7 +2219,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2191,7 +2248,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2220,7 +2277,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2249,7 +2306,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2278,7 +2335,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2307,7 +2364,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2336,7 +2393,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2365,7 +2422,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2394,7 +2451,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2423,7 +2480,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2452,7 +2509,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2481,7 +2538,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2510,7 +2567,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2539,7 +2596,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2568,7 +2625,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2597,7 +2654,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2626,7 +2683,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2655,7 +2712,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2684,7 +2741,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2713,7 +2770,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2742,7 +2799,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2771,7 +2828,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2800,7 +2857,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2829,7 +2886,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2858,7 +2915,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2887,7 +2944,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2916,7 +2973,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2945,7 +3002,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2974,7 +3031,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3003,7 +3060,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3032,7 +3089,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3061,7 +3118,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3090,7 +3147,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3119,7 +3176,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3148,7 +3205,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3177,7 +3234,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3206,7 +3263,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3235,7 +3292,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3264,7 +3321,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3293,7 +3350,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3322,7 +3379,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3351,7 +3408,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3380,7 +3437,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3409,7 +3466,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3438,7 +3495,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3467,7 +3524,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3496,7 +3553,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3525,7 +3582,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3554,7 +3611,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3583,7 +3640,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3612,7 +3669,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3641,7 +3698,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3670,7 +3727,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3699,7 +3756,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3728,7 +3785,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3757,7 +3814,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3786,7 +3843,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3815,7 +3872,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3844,7 +3901,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3873,7 +3930,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3902,7 +3959,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3931,7 +3988,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3960,7 +4017,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3989,7 +4046,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4018,7 +4075,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4047,7 +4104,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4076,7 +4133,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4105,7 +4162,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4134,7 +4191,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4172,22 +4229,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:DX11"/>
+  <dimension ref="A1:EN11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="EC1" workbookViewId="0">
+      <selection activeCell="EP2" sqref="EP2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" customWidth="1"/>
+    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:144" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -4572,33 +4629,81 @@
       <c r="DX1" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:128" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="DY1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="DZ1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="ED1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EE1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="EF1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="EG1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="EH1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="EI1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EJ1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="EK1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="EL1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="EM1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="EN1" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:144" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CM6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
       <c r="CP6" s="1"/>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CM8" s="1"/>
       <c r="CO8" s="1"/>
     </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CM9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CM10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
       <c r="CM11" s="1"/>
       <c r="CO11" s="1"/>
     </row>
